--- a/excel files/school_teacherextra.xlsx
+++ b/excel files/school_teacherextra.xlsx
@@ -60,91 +60,91 @@
     <t>GV0001</t>
   </si>
   <si>
-    <t>Nguyá»…n VÄƒn ChÃ­nh</t>
-  </si>
-  <si>
     <t>gv2</t>
   </si>
   <si>
     <t>GV0002</t>
   </si>
   <si>
-    <t>ÄoÃ n VÄƒn Háº­u</t>
-  </si>
-  <si>
     <t>gv3</t>
   </si>
   <si>
     <t>GV0003</t>
   </si>
   <si>
-    <t>LÃª HoÃ ng HÃ </t>
-  </si>
-  <si>
     <t>gv4</t>
   </si>
   <si>
     <t>GV0004</t>
   </si>
   <si>
-    <t>LÃª Háº£i DÆ°Æ¡ng</t>
-  </si>
-  <si>
     <t>gv5</t>
   </si>
   <si>
-    <t>Ná»¯</t>
-  </si>
-  <si>
     <t>GV0005</t>
   </si>
   <si>
-    <t>Nguyá»…n BÃ­ch Háº±ng</t>
-  </si>
-  <si>
     <t>gv6</t>
   </si>
   <si>
     <t>GV0006</t>
   </si>
   <si>
-    <t>Nguyá»…n Há»¯u Tiáº¿n</t>
-  </si>
-  <si>
     <t>gv7</t>
   </si>
   <si>
     <t>GV0007</t>
   </si>
   <si>
-    <t>NgÃ´ VÄƒn Nam</t>
-  </si>
-  <si>
     <t>gv8</t>
   </si>
   <si>
     <t>GV0008</t>
   </si>
   <si>
-    <t>Pháº¡m Quang LiÃªm</t>
-  </si>
-  <si>
     <t>gv9</t>
   </si>
   <si>
     <t>GV0009</t>
   </si>
   <si>
-    <t>Nguyá»…n Thá»‹ Há»“ng VÃ¢n</t>
-  </si>
-  <si>
     <t>gv10</t>
   </si>
   <si>
     <t>GV0010</t>
   </si>
   <si>
-    <t>ÄÃ o Thá»‹ DuyÃªn</t>
+    <t>Nguyễn Văn Chính</t>
+  </si>
+  <si>
+    <t>Đoàn Văn Hậu</t>
+  </si>
+  <si>
+    <t>Lê Hoàng Hà</t>
+  </si>
+  <si>
+    <t>Lê Hải Dương</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>Nguyễn Bích Hằng</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Tiến</t>
+  </si>
+  <si>
+    <t>Ngô Văn Nam</t>
+  </si>
+  <si>
+    <t>Phạm Quang Liêm</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng Vân</t>
+  </si>
+  <si>
+    <t>Đào Thị Duyên</t>
   </si>
 </sst>
 </file>
@@ -954,7 +954,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1016,7 +1018,7 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1030,7 +1032,7 @@
         <v>44758</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -1042,10 +1044,10 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1059,7 +1061,7 @@
         <v>44758</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -1071,10 +1073,10 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1088,7 +1090,7 @@
         <v>44758</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -1100,10 +1102,10 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1117,7 +1119,7 @@
         <v>44758</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -1126,13 +1128,13 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1146,7 +1148,7 @@
         <v>44758</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>8</v>
@@ -1158,10 +1160,10 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1175,7 +1177,7 @@
         <v>44758</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>9</v>
@@ -1187,10 +1189,10 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1204,7 +1206,7 @@
         <v>44758</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -1216,10 +1218,10 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1233,7 +1235,7 @@
         <v>44758</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>11</v>
@@ -1242,13 +1244,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1262,7 +1264,7 @@
         <v>44758</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>12</v>
@@ -1271,10 +1273,10 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J11" t="s">
         <v>41</v>
@@ -1282,5 +1284,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel files/school_teacherextra.xlsx
+++ b/excel files/school_teacherextra.xlsx
@@ -51,9 +51,6 @@
     <t>ten_gv</t>
   </si>
   <si>
-    <t>gv</t>
-  </si>
-  <si>
     <t>Nam</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Đào Thị Duyên</t>
+  </si>
+  <si>
+    <t>gv1</t>
   </si>
 </sst>
 </file>
@@ -955,7 +955,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1003,7 @@
         <v>44758</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -1012,13 +1012,13 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1032,7 +1032,7 @@
         <v>44758</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -1041,13 +1041,13 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
         <v>44758</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -1070,13 +1070,13 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1090,7 +1090,7 @@
         <v>44758</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -1099,13 +1099,13 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1119,7 +1119,7 @@
         <v>44758</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -1128,13 +1128,13 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
         <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1148,7 +1148,7 @@
         <v>44758</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>8</v>
@@ -1157,13 +1157,13 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1177,7 +1177,7 @@
         <v>44758</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>9</v>
@@ -1186,13 +1186,13 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1206,7 +1206,7 @@
         <v>44758</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -1215,13 +1215,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
         <v>44758</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>11</v>
@@ -1244,13 +1244,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1264,7 +1264,7 @@
         <v>44758</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>12</v>
@@ -1273,13 +1273,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/excel files/school_teacherextra.xlsx
+++ b/excel files/school_teacherextra.xlsx
@@ -955,7 +955,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/excel files/school_teacherextra.xlsx
+++ b/excel files/school_teacherextra.xlsx
@@ -955,7 +955,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
